--- a/generated_docs/WR_89708709_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/24/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89708709_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>898.72</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,23 +799,149 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>870.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="inlineStr"/>
+      <c r="H18" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H18" s="16" t="n">
-        <v>898.72</v>
+      <c r="H19" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>Friday (07/25/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H25" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A18:G18"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -824,7 +950,10 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89708709_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89708709_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>898.72</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P6</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="17">
@@ -799,149 +795,23 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>870.12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10" t="inlineStr"/>
-      <c r="H18" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H19" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>Friday (07/25/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G23" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H23" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C24" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10" t="inlineStr"/>
-      <c r="H24" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H25" s="16" t="n">
-        <v>0</v>
+      <c r="H18" s="16" t="n">
+        <v>898.72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -950,10 +820,7 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A25:G25"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A22:H22"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
